--- a/AESTHEMOS_Items_Names.xlsx
+++ b/AESTHEMOS_Items_Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.org.aalto.fi\vornhaj1\data\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD964DE-E010-4D25-9F77-8AFE2EB27E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F488607-4EED-4DB0-B8D5-3FF2CA5864F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-17520" windowWidth="29040" windowHeight="17640" xr2:uid="{F4FB81F6-D4C6-40A5-B23E-0EB32E3AD210}"/>
+    <workbookView xWindow="28680" yWindow="-17550" windowWidth="18240" windowHeight="28440" xr2:uid="{F4FB81F6-D4C6-40A5-B23E-0EB32E3AD210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>IntellectualChallenge_1_AESTHEMOS</t>
   </si>
@@ -203,27 +203,15 @@
     <t>Bored Me</t>
   </si>
   <si>
-    <t>Felt Confused</t>
-  </si>
-  <si>
     <t>Was unsettling to me</t>
   </si>
   <si>
-    <t>Felt Something Wonderful</t>
-  </si>
-  <si>
-    <t>Was Enchanted</t>
-  </si>
-  <si>
     <t>Motivated Me to act</t>
   </si>
   <si>
     <t>Energized Me</t>
   </si>
   <si>
-    <t>Was Impressed</t>
-  </si>
-  <si>
     <t>Fascinated Me</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>I found it distasteful</t>
   </si>
   <si>
-    <t>I found it ugly</t>
-  </si>
-  <si>
     <t>Amused me</t>
   </si>
   <si>
@@ -303,6 +288,150 @@
   </si>
   <si>
     <t>Invigorated Me</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Ae1</t>
+  </si>
+  <si>
+    <t>Ae3</t>
+  </si>
+  <si>
+    <t>Ae5</t>
+  </si>
+  <si>
+    <t>Ae7</t>
+  </si>
+  <si>
+    <t>Ae9</t>
+  </si>
+  <si>
+    <t>Ae11</t>
+  </si>
+  <si>
+    <t>Ae22</t>
+  </si>
+  <si>
+    <t>Ae13</t>
+  </si>
+  <si>
+    <t>Ae15</t>
+  </si>
+  <si>
+    <t>Ae17</t>
+  </si>
+  <si>
+    <t>Ae19</t>
+  </si>
+  <si>
+    <t>Ae21</t>
+  </si>
+  <si>
+    <t>Ae23</t>
+  </si>
+  <si>
+    <t>Ae25</t>
+  </si>
+  <si>
+    <t>Ae27</t>
+  </si>
+  <si>
+    <t>Ae29</t>
+  </si>
+  <si>
+    <t>Ae31</t>
+  </si>
+  <si>
+    <t>Ae33</t>
+  </si>
+  <si>
+    <t>Ae35</t>
+  </si>
+  <si>
+    <t>Ae37</t>
+  </si>
+  <si>
+    <t>Ae39</t>
+  </si>
+  <si>
+    <t>Ae41</t>
+  </si>
+  <si>
+    <t>Ae6</t>
+  </si>
+  <si>
+    <t>I felt Something Wonderful</t>
+  </si>
+  <si>
+    <t>Ae8</t>
+  </si>
+  <si>
+    <t>Ae10</t>
+  </si>
+  <si>
+    <t>Ae14</t>
+  </si>
+  <si>
+    <t>Was ugly</t>
+  </si>
+  <si>
+    <t>Ae16</t>
+  </si>
+  <si>
+    <t>Was Enchanting</t>
+  </si>
+  <si>
+    <t>Ae18</t>
+  </si>
+  <si>
+    <t>Ae20</t>
+  </si>
+  <si>
+    <t>Made me feel confused</t>
+  </si>
+  <si>
+    <t>Ae24</t>
+  </si>
+  <si>
+    <t>Ae26</t>
+  </si>
+  <si>
+    <t>Ae28</t>
+  </si>
+  <si>
+    <t>Ae30</t>
+  </si>
+  <si>
+    <t>Ae32</t>
+  </si>
+  <si>
+    <t>Was Impressive</t>
+  </si>
+  <si>
+    <t>Ae34</t>
+  </si>
+  <si>
+    <t>Ae42</t>
+  </si>
+  <si>
+    <t>Ae36</t>
+  </si>
+  <si>
+    <t>Ae38</t>
+  </si>
+  <si>
+    <t>Ae40</t>
+  </si>
+  <si>
+    <t>Ae12</t>
+  </si>
+  <si>
+    <t>Ae4</t>
+  </si>
+  <si>
+    <t>Ae2</t>
   </si>
 </sst>
 </file>
@@ -345,7 +474,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -367,10 +499,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1749B911-71DA-41BE-B75B-BB225B8BBFAD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="5" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Column3"/>
@@ -380,14 +513,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8CD5862-9602-4D2F-BB64-A7755EE58A69}" name="AESTHEMOS_Items_Naming" displayName="AESTHEMOS_Items_Naming" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B43" xr:uid="{105DABE7-DED5-4DF8-A015-AD07EB5E1405}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8CD5862-9602-4D2F-BB64-A7755EE58A69}" name="AESTHEMOS_Items_Naming" displayName="AESTHEMOS_Items_Naming" ref="A1:C43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C43" xr:uid="{105DABE7-DED5-4DF8-A015-AD07EB5E1405}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
     <sortCondition ref="A1:A43"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F754C037-0AF7-49F8-975D-B8F88C9E2FF2}" uniqueName="1" name="Item Code" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{07095A5C-6F97-4D13-8006-1E9C43D02DD8}" uniqueName="2" name="Item Text" queryTableFieldId="2" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F754C037-0AF7-49F8-975D-B8F88C9E2FF2}" uniqueName="1" name="Item Code" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{07095A5C-6F97-4D13-8006-1E9C43D02DD8}" uniqueName="2" name="Item Text" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C728251E-801B-4569-A97D-72603450E21E}" uniqueName="3" name="Raw Data" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,360 +824,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C81472-C923-4DCD-BD0B-26E79A9F98B3}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
